--- a/shortlist.xlsx
+++ b/shortlist.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Departmental rank</t>
   </si>
@@ -26,15 +26,9 @@
     <t>Proposed award</t>
   </si>
   <si>
-    <t>Committee</t>
-  </si>
-  <si>
     <t>Proposed committee</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Proposed category</t>
   </si>
   <si>
@@ -65,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1</t>
   </si>
   <si>
     <t>2018 NY</t>
@@ -121,12 +115,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="12"/>
+        <fgColor rgb="1981B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor rgb="1981B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -222,37 +216,31 @@
       <c r="N1" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="D2" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="E2" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -264,19 +252,13 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
